--- a/1QnQ_Test/1Software_TESTING/POS/Lab Billing Module/QnQ_TC_Lab_Billing.xlsx
+++ b/1QnQ_Test/1Software_TESTING/POS/Lab Billing Module/QnQ_TC_Lab_Billing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1QnQ_Test\1Software_TESTING\POS\Lab Billing Module\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test Files\Test-Files\1QnQ_Test\1Software_TESTING\POS\Lab Billing Module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF12937-D59F-4695-BC17-6647DA1D12C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4029A1-75E2-418D-8598-47FC82C5A9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="1" r:id="rId1"/>
@@ -2857,18 +2857,18 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="4:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="4:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="4:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
@@ -2878,7 +2878,7 @@
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
     </row>
-    <row r="9" spans="4:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="4:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="D9" s="26"/>
       <c r="E9" s="27" t="s">
         <v>59</v>
@@ -2890,8 +2890,8 @@
       <c r="J9" s="29"/>
       <c r="K9" s="26"/>
     </row>
-    <row r="10" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E14" s="7">
         <v>1</v>
       </c>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -2949,28 +2949,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ED8378-ABCC-4AF5-A659-D52162CC021D}">
   <dimension ref="A1:L944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="8.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="5"/>
+    <col min="2" max="2" width="8.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="6" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="56.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="62.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="56.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="62.33203125" style="4" customWidth="1"/>
     <col min="10" max="10" width="40" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="11" max="11" width="17.33203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f>SUBTOTAL(3,$E$2:E2)</f>
         <v>1</v>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H4" s="5" t="s">
         <v>16</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f>SUBTOTAL(3,$E$2:E5)</f>
         <v>2</v>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H6" s="5" t="s">
         <v>15</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H7" s="5" t="s">
         <v>16</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f>SUBTOTAL(3,$E$2:E8)</f>
         <v>3</v>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H9" s="5" t="s">
         <v>15</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H10" s="5" t="s">
         <v>16</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f>SUBTOTAL(3,$E$2:E11)</f>
         <v>4</v>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H12" s="5" t="s">
         <v>15</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H13" s="5" t="s">
         <v>16</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H14" s="5" t="s">
         <v>19</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f>SUBTOTAL(3,$E$2:E15)</f>
         <v>5</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H16" s="5" t="s">
         <v>15</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17" s="5" t="s">
         <v>16</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H18" s="5" t="s">
         <v>19</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
       <c r="H19" s="5" t="s">
         <v>20</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H20" s="5" t="s">
         <v>21</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f>SUBTOTAL(3,$E$2:E21)</f>
         <v>6</v>
@@ -3338,7 +3338,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H22" s="5" t="s">
         <v>15</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H23" s="5" t="s">
         <v>16</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H24" s="5" t="s">
         <v>19</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H25" s="5" t="s">
         <v>20</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f>SUBTOTAL(3,$E$2:E26)</f>
         <v>7</v>
@@ -3410,7 +3410,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H27" s="5" t="s">
         <v>15</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H28" s="5" t="s">
         <v>16</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H29" s="5" t="s">
         <v>19</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f>SUBTOTAL(3,$E$2:E30)</f>
         <v>8</v>
@@ -3471,7 +3471,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H31" s="5" t="s">
         <v>15</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H32" s="5" t="s">
         <v>16</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H33" s="5" t="s">
         <v>19</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H34" s="5" t="s">
         <v>20</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="H35" s="5" t="s">
         <v>21</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H36" s="5" t="s">
         <v>23</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f>SUBTOTAL(3,$E$2:E37)</f>
         <v>9</v>
@@ -3565,7 +3565,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H38" s="5" t="s">
         <v>15</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H39" s="5" t="s">
         <v>16</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H40" s="5" t="s">
         <v>19</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H41" s="5" t="s">
         <v>20</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f>SUBTOTAL(3,$E$2:E42)</f>
         <v>10</v>
@@ -3637,7 +3637,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H43" s="5" t="s">
         <v>15</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H44" s="5" t="s">
         <v>16</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H45" s="5" t="s">
         <v>19</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H46" s="5" t="s">
         <v>20</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f>SUBTOTAL(3,$E$2:E47)</f>
         <v>11</v>
@@ -3709,7 +3709,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H48" s="5" t="s">
         <v>15</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H49" s="5" t="s">
         <v>16</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H50" s="5" t="s">
         <v>19</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H51" s="5" t="s">
         <v>20</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f>SUBTOTAL(3,$E$2:E52)</f>
         <v>12</v>
@@ -3781,7 +3781,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H53" s="5" t="s">
         <v>15</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H54" s="5" t="s">
         <v>16</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H55" s="5" t="s">
         <v>19</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H56" s="5" t="s">
         <v>20</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H57" s="5" t="s">
         <v>21</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H58" s="5" t="s">
         <v>23</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H59" s="5" t="s">
         <v>24</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f>SUBTOTAL(3,$E$2:E60)</f>
         <v>13</v>
@@ -3886,7 +3886,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H61" s="5" t="s">
         <v>15</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H62" s="5" t="s">
         <v>16</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H63" s="5" t="s">
         <v>19</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H64" s="5" t="s">
         <v>20</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H65" s="5" t="s">
         <v>21</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H66" s="5" t="s">
         <v>23</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f>SUBTOTAL(3,$E$2:E67)</f>
         <v>14</v>
@@ -3980,7 +3980,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H68" s="5" t="s">
         <v>15</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H69" s="5" t="s">
         <v>16</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H70" s="5" t="s">
         <v>19</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H71" s="5" t="s">
         <v>20</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H72" s="5" t="s">
         <v>21</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H73" s="5" t="s">
         <v>23</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H74" s="5" t="s">
         <v>24</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f>SUBTOTAL(3,$E$2:E75)</f>
         <v>15</v>
@@ -4085,7 +4085,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H76" s="5" t="s">
         <v>15</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H77" s="5" t="s">
         <v>16</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H78" s="5" t="s">
         <v>19</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H79" s="5" t="s">
         <v>20</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H80" s="5" t="s">
         <v>21</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H81" s="5" t="s">
         <v>23</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H82" s="5" t="s">
         <v>24</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H83" s="5" t="s">
         <v>25</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H84" s="5" t="s">
         <v>26</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E85" s="21"/>
       <c r="H85" s="5" t="s">
         <v>27</v>
@@ -4196,7 +4196,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f>SUBTOTAL(3,$E$2:E86)</f>
         <v>16</v>
@@ -4224,7 +4224,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H87" s="5" t="s">
         <v>15</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H88" s="5" t="s">
         <v>16</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H89" s="5" t="s">
         <v>19</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H90" s="5" t="s">
         <v>20</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f>SUBTOTAL(3,$E$2:E91)</f>
         <v>17</v>
@@ -4296,7 +4296,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H92" s="5" t="s">
         <v>15</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H93" s="5" t="s">
         <v>16</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H94" s="5" t="s">
         <v>19</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H95" s="5" t="s">
         <v>20</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H96" s="5" t="s">
         <v>21</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H97" s="5" t="s">
         <v>23</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H98" s="5" t="s">
         <v>24</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H99" s="5" t="s">
         <v>25</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H100" s="5" t="s">
         <v>25</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H101" s="5" t="s">
         <v>26</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H102" s="5" t="s">
         <v>23</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <f>SUBTOTAL(3,$E$2:E103)</f>
         <v>18</v>
@@ -4445,7 +4445,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H104" s="5" t="s">
         <v>15</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H105" s="5" t="s">
         <v>16</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H106" s="5" t="s">
         <v>19</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H107" s="5" t="s">
         <v>20</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H108" s="5" t="s">
         <v>21</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H109" s="5" t="s">
         <v>23</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H110" s="5" t="s">
         <v>24</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H111" s="5" t="s">
         <v>25</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H112" s="5" t="s">
         <v>26</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H113" s="5" t="s">
         <v>27</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E114" s="5"/>
       <c r="H114" s="5" t="s">
         <v>28</v>
@@ -4567,7 +4567,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f>SUBTOTAL(3,$E$2:E115)</f>
         <v>19</v>
@@ -4595,7 +4595,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H116" s="5" t="s">
         <v>15</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H117" s="5" t="s">
         <v>16</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H118" s="5" t="s">
         <v>19</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H119" s="5" t="s">
         <v>20</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H120" s="5" t="s">
         <v>20</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <f>SUBTOTAL(3,$E$2:E121)</f>
         <v>20</v>
@@ -4678,7 +4678,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H122" s="5" t="s">
         <v>15</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H123" s="5" t="s">
         <v>16</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H124" s="5" t="s">
         <v>19</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H125" s="5" t="s">
         <v>20</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <f>SUBTOTAL(3,$E$2:E126)</f>
         <v>21</v>
@@ -4750,7 +4750,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H127" s="5" t="s">
         <v>15</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H128" s="5" t="s">
         <v>16</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H129" s="5" t="s">
         <v>19</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H130" s="5" t="s">
         <v>20</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H131" s="5" t="s">
         <v>21</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H132" s="5" t="s">
         <v>23</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H133" s="5" t="s">
         <v>24</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H134" s="5" t="s">
         <v>25</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H135" s="5" t="s">
         <v>26</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <f>SUBTOTAL(3,$E$2:E136)</f>
         <v>22</v>
@@ -4877,7 +4877,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H137" s="5" t="s">
         <v>15</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H138" s="5" t="s">
         <v>16</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H139" s="5" t="s">
         <v>19</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H140" s="5" t="s">
         <v>20</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H141" s="5" t="s">
         <v>21</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H142" s="5" t="s">
         <v>23</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H143" s="5" t="s">
         <v>24</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H144" s="5" t="s">
         <v>25</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H145" s="5" t="s">
         <v>26</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H146" s="5" t="s">
         <v>27</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="17"/>
       <c r="B147" s="17"/>
       <c r="C147" s="18"/>
@@ -5005,7 +5005,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <f>SUBTOTAL(3,$E$2:E148)</f>
         <v>23</v>
@@ -5033,7 +5033,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H149" s="5" t="s">
         <v>15</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H150" s="5" t="s">
         <v>16</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H151" s="5" t="s">
         <v>19</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H152" s="5" t="s">
         <v>20</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <f>SUBTOTAL(3,$E$2:E153)</f>
         <v>24</v>
@@ -5105,7 +5105,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H154" s="5" t="s">
         <v>15</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H155" s="5" t="s">
         <v>16</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H156" s="5" t="s">
         <v>19</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H157" s="5" t="s">
         <v>20</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H158" s="5" t="s">
         <v>21</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H159" s="5" t="s">
         <v>23</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H160" s="5" t="s">
         <v>25</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H161" s="5" t="s">
         <v>25</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H162" s="5" t="s">
         <v>26</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <f>SUBTOTAL(3,$E$2:E163)</f>
         <v>25</v>
@@ -5232,7 +5232,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H164" s="5" t="s">
         <v>15</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H165" s="5" t="s">
         <v>16</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H166" s="5" t="s">
         <v>19</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H167" s="5" t="s">
         <v>20</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H168" s="5" t="s">
         <v>21</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H169" s="5" t="s">
         <v>23</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H170" s="5" t="s">
         <v>24</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H171" s="5" t="s">
         <v>25</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H172" s="5" t="s">
         <v>26</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H173" s="5" t="s">
         <v>27</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="174" spans="1:10" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H174" s="20" t="s">
         <v>28</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <f>SUBTOTAL(3,$E$2:E175)</f>
         <v>26</v>
@@ -5381,7 +5381,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H176" s="5" t="s">
         <v>15</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H177" s="5" t="s">
         <v>16</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H178" s="5" t="s">
         <v>19</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H179" s="5" t="s">
         <v>20</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H180" s="5" t="s">
         <v>21</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H181" s="5" t="s">
         <v>23</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <f>SUBTOTAL(3,$E$2:E182)</f>
         <v>27</v>
@@ -5475,7 +5475,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H183" s="5" t="s">
         <v>15</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H184" s="5" t="s">
         <v>16</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H185" s="5" t="s">
         <v>19</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H186" s="5" t="s">
         <v>20</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H187" s="5" t="s">
         <v>21</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H188" s="5" t="s">
         <v>23</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H189" s="5" t="s">
         <v>24</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <f>SUBTOTAL(3,$E$2:E190)</f>
         <v>28</v>
@@ -5580,7 +5580,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H191" s="5" t="s">
         <v>15</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H192" s="5" t="s">
         <v>16</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H193" s="5" t="s">
         <v>19</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H194" s="5" t="s">
         <v>19</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H195" s="5" t="s">
         <v>20</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H196" s="5" t="s">
         <v>21</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H197" s="5" t="s">
         <v>23</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H198" s="5" t="s">
         <v>24</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H199" s="5" t="s">
         <v>25</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H200" s="5" t="s">
         <v>26</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H201" s="5" t="s">
         <v>25</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="202" spans="1:10" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E202" s="21"/>
       <c r="H202" s="20" t="s">
         <v>26</v>
@@ -5713,7 +5713,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <f>SUBTOTAL(3,$E$2:E203)</f>
         <v>29</v>
@@ -5741,7 +5741,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H204" s="5" t="s">
         <v>15</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H205" s="5" t="s">
         <v>16</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H206" s="5" t="s">
         <v>19</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H207" s="5" t="s">
         <v>20</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <f>SUBTOTAL(3,$E$2:E208)</f>
         <v>30</v>
@@ -5813,7 +5813,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H209" s="5" t="s">
         <v>15</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H210" s="5" t="s">
         <v>16</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H211" s="5" t="s">
         <v>19</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H212" s="5" t="s">
         <v>20</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H213" s="5" t="s">
         <v>21</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H214" s="5" t="s">
         <v>23</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H215" s="5" t="s">
         <v>25</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H216" s="5" t="s">
         <v>25</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H217" s="5" t="s">
         <v>26</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <f>SUBTOTAL(3,$E$2:E218)</f>
         <v>31</v>
@@ -5940,7 +5940,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H219" s="5" t="s">
         <v>15</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H220" s="5" t="s">
         <v>16</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H221" s="5" t="s">
         <v>19</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H222" s="5" t="s">
         <v>20</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H223" s="5" t="s">
         <v>21</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H224" s="5" t="s">
         <v>23</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H225" s="5" t="s">
         <v>24</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H226" s="5" t="s">
         <v>25</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H227" s="5" t="s">
         <v>26</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H228" s="5" t="s">
         <v>27</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="229" spans="1:10" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H229" s="20" t="s">
         <v>28</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <f>SUBTOTAL(3,$E$2:E230)</f>
         <v>32</v>
@@ -6089,7 +6089,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E231" s="4" t="s">
         <v>58</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H232" s="5" t="s">
         <v>16</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H233" s="5" t="s">
         <v>19</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H234" s="5" t="s">
         <v>20</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <f>SUBTOTAL(3,$E$2:E235)</f>
         <v>34</v>
@@ -6164,7 +6164,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H236" s="5" t="s">
         <v>15</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H237" s="5" t="s">
         <v>16</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H238" s="5" t="s">
         <v>19</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H239" s="5" t="s">
         <v>20</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H240" s="5" t="s">
         <v>21</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="241" spans="1:10" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E241" s="21"/>
       <c r="H241" s="20" t="s">
         <v>23</v>
@@ -6231,7 +6231,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <f>SUBTOTAL(3,$E$2:E242)</f>
         <v>35</v>
@@ -6259,7 +6259,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E243" s="4" t="s">
         <v>58</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H244" s="5" t="s">
         <v>16</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H245" s="5" t="s">
         <v>19</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H246" s="5" t="s">
         <v>20</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <f>SUBTOTAL(3,$E$2:E247)</f>
         <v>37</v>
@@ -6334,7 +6334,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H248" s="5" t="s">
         <v>15</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H249" s="5" t="s">
         <v>16</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H250" s="5" t="s">
         <v>19</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="H251" s="5" t="s">
         <v>20</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H252" s="5" t="s">
         <v>21</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="253" spans="1:10" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E253" s="21"/>
       <c r="H253" s="20" t="s">
         <v>23</v>
@@ -6401,7 +6401,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <f>SUBTOTAL(3,$E$2:E254)</f>
         <v>38</v>
@@ -6429,7 +6429,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H255" s="5" t="s">
         <v>15</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H256" s="5" t="s">
         <v>16</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H257" s="5" t="s">
         <v>19</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H258" s="5" t="s">
         <v>20</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H259" s="5" t="s">
         <v>21</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <f>SUBTOTAL(3,$E$2:E260)</f>
         <v>39</v>
@@ -6512,7 +6512,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H261" s="5" t="s">
         <v>15</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H262" s="5" t="s">
         <v>16</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H263" s="5" t="s">
         <v>19</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H264" s="5" t="s">
         <v>20</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="265" spans="1:10" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E265" s="23"/>
       <c r="H265" s="22" t="s">
         <v>21</v>
@@ -6568,7 +6568,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <f>SUBTOTAL(3,$E$2:E266)</f>
         <v>40</v>
@@ -6596,7 +6596,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H267" s="5" t="s">
         <v>15</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H268" s="5" t="s">
         <v>16</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H269" s="5" t="s">
         <v>19</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H270" s="5" t="s">
         <v>20</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <f>SUBTOTAL(3,$E$2:E271)</f>
         <v>41</v>
@@ -6668,7 +6668,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H272" s="5" t="s">
         <v>15</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H273" s="5" t="s">
         <v>16</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H274" s="5" t="s">
         <v>19</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H275" s="5" t="s">
         <v>20</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H276" s="5" t="s">
         <v>21</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <f>SUBTOTAL(3,$E$2:E277)</f>
         <v>42</v>
@@ -6751,7 +6751,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H278" s="5" t="s">
         <v>15</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H279" s="5" t="s">
         <v>16</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H280" s="5" t="s">
         <v>19</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H281" s="5" t="s">
         <v>20</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H282" s="5" t="s">
         <v>21</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <f>SUBTOTAL(3,$E$2:E283)</f>
         <v>43</v>
@@ -6834,7 +6834,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H284" s="5" t="s">
         <v>15</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H285" s="5" t="s">
         <v>16</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H286" s="5" t="s">
         <v>19</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H287" s="5" t="s">
         <v>20</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="288" spans="1:10" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" s="22" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E288" s="23"/>
       <c r="H288" s="22" t="s">
         <v>21</v>
@@ -6890,7 +6890,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <f>SUBTOTAL(3,$E$2:E289)</f>
         <v>44</v>
@@ -6918,7 +6918,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H290" s="5" t="s">
         <v>15</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H291" s="5" t="s">
         <v>16</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H292" s="5" t="s">
         <v>21</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <f>SUBTOTAL(3,$E$2:E293)</f>
         <v>45</v>
@@ -6979,7 +6979,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H294" s="5" t="s">
         <v>15</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H295" s="5" t="s">
         <v>16</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H296" s="5" t="s">
         <v>19</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H297" s="5" t="s">
         <v>20</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H298" s="5" t="s">
         <v>21</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <f>SUBTOTAL(3,$E$2:E299)</f>
         <v>46</v>
@@ -7062,7 +7062,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H300" s="5" t="s">
         <v>15</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H301" s="5" t="s">
         <v>16</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H302" s="5" t="s">
         <v>19</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H303" s="5" t="s">
         <v>20</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H304" s="5" t="s">
         <v>21</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H305" s="5" t="s">
         <v>23</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H306" s="5" t="s">
         <v>24</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H307" s="5" t="s">
         <v>25</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H308" s="5" t="s">
         <v>25</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H309" s="5" t="s">
         <v>26</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H310" s="5" t="s">
         <v>23</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <f>SUBTOTAL(3,$E$2:E311)</f>
         <v>47</v>
@@ -7211,7 +7211,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H312" s="5" t="s">
         <v>15</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H313" s="5" t="s">
         <v>16</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H314" s="5" t="s">
         <v>19</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H315" s="5" t="s">
         <v>20</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H316" s="5" t="s">
         <v>21</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H317" s="5" t="s">
         <v>23</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H318" s="5" t="s">
         <v>24</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H319" s="5" t="s">
         <v>25</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H320" s="5" t="s">
         <v>26</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H321" s="5" t="s">
         <v>27</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E322" s="5"/>
       <c r="H322" s="5" t="s">
         <v>28</v>
@@ -7333,7 +7333,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <f>SUBTOTAL(3,$E$2:E323)</f>
         <v>48</v>
@@ -7361,7 +7361,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H324" s="5" t="s">
         <v>15</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H325" s="5" t="s">
         <v>16</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H326" s="5" t="s">
         <v>19</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H327" s="5" t="s">
         <v>20</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H328" s="5" t="s">
         <v>21</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H329" s="5" t="s">
         <v>23</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H330" s="5" t="s">
         <v>24</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <f>SUBTOTAL(3,$E$2:E331)</f>
         <v>49</v>
@@ -7466,7 +7466,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H332" s="5" t="s">
         <v>15</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H333" s="5" t="s">
         <v>16</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H334" s="5" t="s">
         <v>19</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H335" s="5" t="s">
         <v>20</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H336" s="5" t="s">
         <v>21</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H337" s="5" t="s">
         <v>23</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H338" s="5" t="s">
         <v>24</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <f>SUBTOTAL(3,$E$2:E339)</f>
         <v>50</v>
@@ -7571,7 +7571,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H340" s="5" t="s">
         <v>15</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H341" s="5" t="s">
         <v>16</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H342" s="5" t="s">
         <v>19</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H343" s="5" t="s">
         <v>19</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H344" s="5" t="s">
         <v>20</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H345" s="5" t="s">
         <v>21</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H346" s="5" t="s">
         <v>23</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H347" s="5" t="s">
         <v>24</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H348" s="5" t="s">
         <v>25</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H349" s="5" t="s">
         <v>26</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H350" s="5" t="s">
         <v>27</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="351" spans="1:10" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E351" s="21"/>
       <c r="H351" s="20" t="s">
         <v>28</v>
@@ -7704,7 +7704,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <f>SUBTOTAL(3,$E$2:E352)</f>
         <v>51</v>
@@ -7732,7 +7732,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H353" s="5" t="s">
         <v>15</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H354" s="5" t="s">
         <v>16</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H355" s="5" t="s">
         <v>19</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H356" s="5" t="s">
         <v>20</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H357" s="5" t="s">
         <v>20</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <f>SUBTOTAL(3,$E$2:E358)</f>
         <v>52</v>
@@ -7815,7 +7815,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H359" s="5" t="s">
         <v>15</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H360" s="5" t="s">
         <v>16</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H361" s="5" t="s">
         <v>19</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H362" s="5" t="s">
         <v>20</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H363" s="5" t="s">
         <v>21</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H364" s="5" t="s">
         <v>23</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H365" s="5" t="s">
         <v>25</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H366" s="5" t="s">
         <v>25</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H367" s="5" t="s">
         <v>26</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <f>SUBTOTAL(3,$E$2:E368)</f>
         <v>53</v>
@@ -7942,7 +7942,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H369" s="5" t="s">
         <v>15</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H370" s="5" t="s">
         <v>16</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H371" s="5" t="s">
         <v>19</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H372" s="5" t="s">
         <v>20</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H373" s="5" t="s">
         <v>21</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H374" s="5" t="s">
         <v>23</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H375" s="5" t="s">
         <v>24</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H376" s="5" t="s">
         <v>25</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H377" s="5" t="s">
         <v>26</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H378" s="5" t="s">
         <v>27</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="379" spans="1:10" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" s="22" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H379" s="22" t="s">
         <v>28</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
         <f>SUBTOTAL(3,$E$2:E380)</f>
         <v>54</v>
@@ -8091,7 +8091,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H381" s="5" t="s">
         <v>15</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H382" s="5" t="s">
         <v>16</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H383" s="5" t="s">
         <v>19</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H384" s="5" t="s">
         <v>20</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H385" s="5" t="s">
         <v>21</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A386" s="4">
         <f>SUBTOTAL(3,$E$2:E386)</f>
         <v>55</v>
@@ -8174,7 +8174,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H387" s="5" t="s">
         <v>15</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H388" s="5" t="s">
         <v>16</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H389" s="5" t="s">
         <v>19</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10" ht="165.6" x14ac:dyDescent="0.25">
       <c r="H390" s="5" t="s">
         <v>20</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10" ht="165.6" x14ac:dyDescent="0.25">
       <c r="H391" s="5" t="s">
         <v>21</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
         <f>SUBTOTAL(3,$E$2:E392)</f>
         <v>56</v>
@@ -8257,7 +8257,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H393" s="5" t="s">
         <v>15</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H394" s="5" t="s">
         <v>16</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H395" s="5" t="s">
         <v>19</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H396" s="5" t="s">
         <v>20</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
         <f>SUBTOTAL(3,$E$2:E397)</f>
         <v>57</v>
@@ -8329,7 +8329,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H398" s="5" t="s">
         <v>15</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H399" s="5" t="s">
         <v>16</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H400" s="5" t="s">
         <v>19</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H401" s="5" t="s">
         <v>20</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="402" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H402" s="5" t="s">
         <v>21</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="403" spans="1:11" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E403" s="21"/>
       <c r="H403" s="20" t="s">
         <v>23</v>
@@ -8396,7 +8396,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="404" spans="1:11" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A404" s="4">
         <f>SUBTOTAL(3,$E$2:E404)</f>
         <v>58</v>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="K404" s="8"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H405" s="5" t="s">
         <v>15</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H406" s="5" t="s">
         <v>16</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H407" s="5" t="s">
         <v>19</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H408" s="5" t="s">
         <v>19</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H409" s="5" t="s">
         <v>20</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H410" s="5" t="s">
         <v>21</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A411" s="4">
         <f>SUBTOTAL(3,$E$2:E411)</f>
         <v>59</v>
@@ -8520,7 +8520,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H412" s="5" t="s">
         <v>15</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H413" s="5" t="s">
         <v>16</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H414" s="5" t="s">
         <v>19</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H415" s="5" t="s">
         <v>19</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="416" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H416" s="5" t="s">
         <v>20</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
         <f>SUBTOTAL(3,$E$2:E417)</f>
         <v>60</v>
@@ -8603,7 +8603,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H418" s="5" t="s">
         <v>15</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H419" s="5" t="s">
         <v>16</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H420" s="5" t="s">
         <v>19</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="421" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="H421" s="5" t="s">
         <v>19</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="422" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="H422" s="5" t="s">
         <v>20</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="423" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A423" s="4">
         <f>SUBTOTAL(3,$E$2:E423)</f>
         <v>61</v>
@@ -8686,7 +8686,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H424" s="5" t="s">
         <v>15</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H425" s="5" t="s">
         <v>16</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H426" s="5" t="s">
         <v>19</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="427" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H427" s="5" t="s">
         <v>20</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="428" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H428" s="5" t="s">
         <v>21</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="429" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A429" s="4">
         <f>SUBTOTAL(3,$E$2:E429)</f>
         <v>62</v>
@@ -8769,7 +8769,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H430" s="5" t="s">
         <v>15</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H431" s="5" t="s">
         <v>16</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H432" s="5" t="s">
         <v>19</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="433" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H433" s="5" t="s">
         <v>20</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="434" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H434" s="5" t="s">
         <v>21</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A435" s="4">
         <f>SUBTOTAL(3,$E$2:E435)</f>
         <v>63</v>
@@ -8852,7 +8852,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H436" s="5" t="s">
         <v>15</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H437" s="5" t="s">
         <v>16</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H438" s="5" t="s">
         <v>19</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="439" spans="1:10" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E439" s="23"/>
       <c r="H439" s="22" t="s">
         <v>20</v>
@@ -8897,7 +8897,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="440" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A440" s="4">
         <f>SUBTOTAL(3,$E$2:E440)</f>
         <v>64</v>
@@ -8925,7 +8925,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H441" s="5" t="s">
         <v>15</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H442" s="5" t="s">
         <v>16</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H443" s="5" t="s">
         <v>19</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="444" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H444" s="5" t="s">
         <v>20</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="445" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A445" s="4">
         <f>SUBTOTAL(3,$E$2:E445)</f>
         <v>65</v>
@@ -8997,7 +8997,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H446" s="5" t="s">
         <v>15</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H447" s="5" t="s">
         <v>16</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H448" s="5" t="s">
         <v>19</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="449" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H449" s="5" t="s">
         <v>20</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="450" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H450" s="5" t="s">
         <v>21</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="451" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A451" s="4">
         <f>SUBTOTAL(3,$E$2:E451)</f>
         <v>66</v>
@@ -9080,7 +9080,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H452" s="5" t="s">
         <v>15</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H453" s="5" t="s">
         <v>16</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H454" s="5" t="s">
         <v>19</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="455" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H455" s="5" t="s">
         <v>20</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="456" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H456" s="5" t="s">
         <v>21</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="457" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A457" s="4">
         <f>SUBTOTAL(3,$E$2:E457)</f>
         <v>67</v>
@@ -9163,7 +9163,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H458" s="5" t="s">
         <v>15</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H459" s="5" t="s">
         <v>16</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H460" s="5" t="s">
         <v>19</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="461" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H461" s="5" t="s">
         <v>20</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="462" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H462" s="5" t="s">
         <v>21</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="463" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A463" s="4">
         <f>SUBTOTAL(3,$E$2:E463)</f>
         <v>68</v>
@@ -9246,7 +9246,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H464" s="5" t="s">
         <v>15</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H465" s="5" t="s">
         <v>16</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H466" s="5" t="s">
         <v>19</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="467" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H467" s="5" t="s">
         <v>20</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="468" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H468" s="5" t="s">
         <v>21</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="469" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A469" s="4">
         <f>SUBTOTAL(3,$E$2:E469)</f>
         <v>69</v>
@@ -9329,7 +9329,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H470" s="5" t="s">
         <v>15</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H471" s="5" t="s">
         <v>16</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H472" s="5" t="s">
         <v>19</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="473" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H473" s="5" t="s">
         <v>20</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="474" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H474" s="5" t="s">
         <v>21</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="475" spans="1:10" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" s="22" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E475" s="23"/>
       <c r="H475" s="22" t="s">
         <v>23</v>
@@ -9396,7 +9396,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="476" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A476" s="4">
         <f>SUBTOTAL(3,$E$2:E476)</f>
         <v>70</v>
@@ -9424,7 +9424,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H477" s="5" t="s">
         <v>15</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H478" s="5" t="s">
         <v>16</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H479" s="5" t="s">
         <v>19</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="480" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H480" s="5" t="s">
         <v>20</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="481" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="H481" s="5" t="s">
         <v>21</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="482" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A482" s="4">
         <f>SUBTOTAL(3,$E$2:E482)</f>
         <v>71</v>
@@ -9507,7 +9507,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H483" s="5" t="s">
         <v>15</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H484" s="5" t="s">
         <v>16</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H485" s="5" t="s">
         <v>19</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="486" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H486" s="5" t="s">
         <v>20</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="487" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H487" s="5" t="s">
         <v>21</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="488" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H488" s="5" t="s">
         <v>23</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="489" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H489" s="5" t="s">
         <v>24</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="490" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H490" s="5" t="s">
         <v>25</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="491" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H491" s="5" t="s">
         <v>26</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="492" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A492" s="4">
         <f>SUBTOTAL(3,$E$2:E492)</f>
         <v>72</v>
@@ -9634,7 +9634,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H493" s="5" t="s">
         <v>15</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H494" s="5" t="s">
         <v>16</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H495" s="5" t="s">
         <v>19</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="496" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H496" s="5" t="s">
         <v>20</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="497" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H497" s="5" t="s">
         <v>23</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="498" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H498" s="5" t="s">
         <v>24</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="499" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H499" s="5" t="s">
         <v>25</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="500" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H500" s="5" t="s">
         <v>26</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="501" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A501" s="4">
         <f>SUBTOTAL(3,$E$2:E501)</f>
         <v>73</v>
@@ -9750,7 +9750,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H502" s="5" t="s">
         <v>15</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H503" s="5" t="s">
         <v>16</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H504" s="5" t="s">
         <v>19</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H505" s="5" t="s">
         <v>20</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="506" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H506" s="5" t="s">
         <v>23</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="507" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H507" s="5" t="s">
         <v>24</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="508" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H508" s="5" t="s">
         <v>25</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="509" spans="1:10" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" s="22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E509" s="23"/>
       <c r="H509" s="22" t="s">
         <v>26</v>
@@ -9839,7 +9839,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="510" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A510" s="4">
         <f>SUBTOTAL(3,$E$2:E510)</f>
         <v>74</v>
@@ -9867,7 +9867,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H511" s="5" t="s">
         <v>15</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H512" s="5" t="s">
         <v>16</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H513" s="5" t="s">
         <v>19</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="514" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H514" s="5" t="s">
         <v>20</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="515" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="H515" s="5" t="s">
         <v>21</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="516" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A516" s="4">
         <f>SUBTOTAL(3,$E$2:E516)</f>
         <v>75</v>
@@ -9950,7 +9950,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H517" s="5" t="s">
         <v>15</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H518" s="5" t="s">
         <v>16</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H519" s="5" t="s">
         <v>19</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="520" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H520" s="5" t="s">
         <v>20</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="521" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="H521" s="5" t="s">
         <v>21</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="522" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H522" s="5" t="s">
         <v>23</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="523" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H523" s="5" t="s">
         <v>24</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="524" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H524" s="5" t="s">
         <v>25</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="525" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H525" s="5" t="s">
         <v>26</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="526" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A526" s="4">
         <f>SUBTOTAL(3,$E$2:E526)</f>
         <v>76</v>
@@ -10077,7 +10077,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H527" s="5" t="s">
         <v>15</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H528" s="5" t="s">
         <v>16</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H529" s="5" t="s">
         <v>19</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="530" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H530" s="5" t="s">
         <v>20</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="531" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H531" s="5" t="s">
         <v>21</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="532" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H532" s="5" t="s">
         <v>23</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="533" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A533" s="4">
         <f>SUBTOTAL(3,$E$2:E533)</f>
         <v>77</v>
@@ -10171,7 +10171,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H534" s="5" t="s">
         <v>15</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H535" s="5" t="s">
         <v>16</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H536" s="5" t="s">
         <v>19</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H537" s="5" t="s">
         <v>20</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="538" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H538" s="5" t="s">
         <v>21</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="539" spans="1:10" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" s="22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E539" s="23"/>
       <c r="H539" s="22" t="s">
         <v>23</v>
@@ -10238,7 +10238,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="540" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A540" s="4">
         <f>SUBTOTAL(3,$E$2:E540)</f>
         <v>78</v>
@@ -10266,7 +10266,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E541" s="4" t="s">
         <v>58</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H542" s="5" t="s">
         <v>16</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="543" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H543" s="5" t="s">
         <v>19</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="544" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H544" s="5" t="s">
         <v>20</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="545" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A545" s="4">
         <f>SUBTOTAL(3,$E$2:E545)</f>
         <v>80</v>
@@ -10342,7 +10342,7 @@
       </c>
       <c r="J545" s="5"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H546" s="5" t="s">
         <v>15</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H547" s="5" t="s">
         <v>16</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="548" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H548" s="5" t="s">
         <v>19</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="549" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="H549" s="5" t="s">
         <v>20</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="550" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H550" s="5" t="s">
         <v>21</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="551" spans="1:10" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E551" s="21"/>
       <c r="H551" s="20" t="s">
         <v>23</v>
@@ -10409,7 +10409,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="552" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="A552" s="4">
         <f>SUBTOTAL(3,$E$2:E552)</f>
         <v>81</v>
@@ -10438,7 +10438,7 @@
       </c>
       <c r="J552" s="5"/>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H553" s="5" t="s">
         <v>15</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H554" s="5" t="s">
         <v>16</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="555" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H555" s="5" t="s">
         <v>19</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="556" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="H556" s="5" t="s">
         <v>20</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="557" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H557" s="5" t="s">
         <v>21</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="558" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A558" s="4">
         <f>SUBTOTAL(3,$E$2:E558)</f>
         <v>82</v>
@@ -10522,7 +10522,7 @@
       </c>
       <c r="J558" s="5"/>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H559" s="5" t="s">
         <v>15</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H560" s="5" t="s">
         <v>16</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="561" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H561" s="5" t="s">
         <v>19</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="562" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="H562" s="5" t="s">
         <v>20</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="563" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H563" s="5" t="s">
         <v>21</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="564" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A564" s="4">
         <f>SUBTOTAL(3,$E$2:E564)</f>
         <v>83</v>
@@ -10606,7 +10606,7 @@
       </c>
       <c r="J564" s="5"/>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H565" s="5" t="s">
         <v>15</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H566" s="5" t="s">
         <v>16</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="567" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H567" s="5" t="s">
         <v>19</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="568" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="H568" s="5" t="s">
         <v>20</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="569" spans="1:10" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E569" s="21"/>
       <c r="H569" s="20" t="s">
         <v>21</v>
@@ -10662,7 +10662,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="570" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A570" s="4">
         <f>SUBTOTAL(3,$E$2:E570)</f>
         <v>84</v>
@@ -10690,7 +10690,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E571" s="4" t="s">
         <v>58</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H572" s="5" t="s">
         <v>16</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="573" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H573" s="5" t="s">
         <v>19</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="574" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H574" s="5" t="s">
         <v>20</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="575" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A575" s="4">
         <f>SUBTOTAL(3,$E$2:E575)</f>
         <v>86</v>
@@ -10765,7 +10765,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H576" s="5" t="s">
         <v>15</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H577" s="5" t="s">
         <v>16</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H578" s="5" t="s">
         <v>19</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="579" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H579" s="5" t="s">
         <v>20</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="580" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H580" s="5" t="s">
         <v>21</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="581" spans="1:10" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E581" s="21"/>
       <c r="H581" s="20" t="s">
         <v>23</v>
@@ -10832,7 +10832,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="582" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A582" s="4">
         <f>SUBTOTAL(3,$E$2:E582)</f>
         <v>87</v>
@@ -10860,7 +10860,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H583" s="5" t="s">
         <v>15</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H584" s="5" t="s">
         <v>16</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H585" s="5" t="s">
         <v>19</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="586" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A586" s="4">
         <f>SUBTOTAL(3,$E$2:E586)</f>
         <v>88</v>
@@ -10921,7 +10921,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H587" s="5" t="s">
         <v>15</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H588" s="5" t="s">
         <v>16</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H589" s="5" t="s">
         <v>19</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="590" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A590" s="4">
         <f>SUBTOTAL(3,$E$2:E590)</f>
         <v>89</v>
@@ -10982,7 +10982,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H591" s="5" t="s">
         <v>15</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H592" s="5" t="s">
         <v>16</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H593" s="5" t="s">
         <v>19</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="594" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A594" s="4">
         <f>SUBTOTAL(3,$E$2:E594)</f>
         <v>90</v>
@@ -11043,7 +11043,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H595" s="5" t="s">
         <v>15</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H596" s="5" t="s">
         <v>16</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H597" s="5" t="s">
         <v>19</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="598" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A598" s="4">
         <f>SUBTOTAL(3,$E$2:E598)</f>
         <v>91</v>
@@ -11104,7 +11104,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H599" s="5" t="s">
         <v>15</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H600" s="5" t="s">
         <v>16</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H601" s="5" t="s">
         <v>19</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="602" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H602" s="5" t="s">
         <v>20</v>
       </c>
@@ -11148,7 +11148,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="603" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="H603" s="5" t="s">
         <v>21</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="604" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H604" s="5" t="s">
         <v>23</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="605" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A605" s="4">
         <f>SUBTOTAL(3,$E$2:E605)</f>
         <v>92</v>
@@ -11198,7 +11198,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H606" s="5" t="s">
         <v>15</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H607" s="5" t="s">
         <v>16</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H608" s="5" t="s">
         <v>19</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="609" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H609" s="5" t="s">
         <v>20</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="610" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A610" s="4">
         <f>SUBTOTAL(3,$E$2:E610)</f>
         <v>93</v>
@@ -11270,7 +11270,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H611" s="5" t="s">
         <v>15</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H612" s="5" t="s">
         <v>16</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H613" s="5" t="s">
         <v>19</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="614" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H614" s="5" t="s">
         <v>20</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="615" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A615" s="4">
         <f>SUBTOTAL(3,$E$2:E615)</f>
         <v>94</v>
@@ -11342,7 +11342,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H616" s="5" t="s">
         <v>15</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H617" s="5" t="s">
         <v>16</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H618" s="5" t="s">
         <v>19</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="619" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H619" s="5" t="s">
         <v>20</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="620" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A620" s="4">
         <f>SUBTOTAL(3,$E$2:E620)</f>
         <v>95</v>
@@ -11414,7 +11414,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H621" s="5" t="s">
         <v>15</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H622" s="5" t="s">
         <v>16</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H623" s="5" t="s">
         <v>19</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H624" s="5" t="s">
         <v>20</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H625" s="5" t="s">
         <v>21</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H626" s="5" t="s">
         <v>23</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="627" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H627" s="5" t="s">
         <v>24</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="628" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A628" s="4">
         <f>SUBTOTAL(3,$E$2:E628)</f>
         <v>96</v>
@@ -11519,7 +11519,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H629" s="5" t="s">
         <v>15</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H630" s="5" t="s">
         <v>16</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H631" s="5" t="s">
         <v>19</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="632" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H632" s="5" t="s">
         <v>20</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="633" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H633" s="5" t="s">
         <v>21</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="634" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H634" s="5" t="s">
         <v>23</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="635" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A635" s="4">
         <f>SUBTOTAL(3,$E$2:E635)</f>
         <v>97</v>
@@ -11613,7 +11613,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H636" s="5" t="s">
         <v>15</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H637" s="5" t="s">
         <v>16</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H638" s="5" t="s">
         <v>19</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="639" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H639" s="5" t="s">
         <v>20</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="640" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H640" s="5" t="s">
         <v>21</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="641" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H641" s="5" t="s">
         <v>23</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="642" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H642" s="5" t="s">
         <v>24</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="643" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A643" s="4">
         <f>SUBTOTAL(3,$E$2:E643)</f>
         <v>98</v>
@@ -11718,7 +11718,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H644" s="5" t="s">
         <v>15</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H645" s="5" t="s">
         <v>16</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H646" s="5" t="s">
         <v>19</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="647" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H647" s="5" t="s">
         <v>20</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="648" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H648" s="5" t="s">
         <v>21</v>
       </c>
@@ -11773,7 +11773,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="649" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H649" s="5" t="s">
         <v>23</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="650" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H650" s="5" t="s">
         <v>24</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="651" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H651" s="5" t="s">
         <v>25</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="652" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:10" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H652" s="5" t="s">
         <v>26</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="653" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A653" s="4">
         <f>SUBTOTAL(3,$E$2:E653)</f>
         <v>99</v>
@@ -11845,7 +11845,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H654" s="5" t="s">
         <v>15</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H655" s="5" t="s">
         <v>16</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H656" s="5" t="s">
         <v>19</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="657" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H657" s="5" t="s">
         <v>20</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="658" spans="1:10" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E658" s="21"/>
       <c r="H658" s="20" t="s">
         <v>21</v>
@@ -11901,7 +11901,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="659" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A659" s="4">
         <f>SUBTOTAL(3,$E$2:E659)</f>
         <v>100</v>
@@ -11929,7 +11929,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H660" s="5" t="s">
         <v>15</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H661" s="5" t="s">
         <v>16</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H662" s="5" t="s">
         <v>19</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="663" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H663" s="5" t="s">
         <v>20</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="664" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H664" s="5" t="s">
         <v>21</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="665" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H665" s="5" t="s">
         <v>23</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="666" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A666" s="4">
         <f>SUBTOTAL(3,$E$2:E666)</f>
         <v>101</v>
@@ -12023,7 +12023,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H667" s="5" t="s">
         <v>15</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H668" s="5" t="s">
         <v>16</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H669" s="5" t="s">
         <v>19</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="670" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H670" s="5" t="s">
         <v>20</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="671" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H671" s="5" t="s">
         <v>21</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="672" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H672" s="5" t="s">
         <v>23</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="673" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H673" s="5" t="s">
         <v>24</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="674" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A674" s="4">
         <f>SUBTOTAL(3,$E$2:E674)</f>
         <v>102</v>
@@ -12128,7 +12128,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H675" s="5" t="s">
         <v>15</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H676" s="5" t="s">
         <v>16</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H677" s="5" t="s">
         <v>19</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H678" s="5" t="s">
         <v>20</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="679" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H679" s="5" t="s">
         <v>21</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H680" s="5" t="s">
         <v>23</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="681" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H681" s="5" t="s">
         <v>24</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H682" s="5" t="s">
         <v>25</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="683" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:10" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H683" s="5" t="s">
         <v>26</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="684" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A684" s="4">
         <f>SUBTOTAL(3,$E$2:E684)</f>
         <v>103</v>
@@ -12255,7 +12255,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H685" s="5" t="s">
         <v>15</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H686" s="5" t="s">
         <v>16</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H687" s="5" t="s">
         <v>19</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="688" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H688" s="5" t="s">
         <v>20</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="689" spans="1:10" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:10" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E689" s="21"/>
       <c r="H689" s="20" t="s">
         <v>21</v>
@@ -12311,7 +12311,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="690" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A690" s="4">
         <f>SUBTOTAL(3,$E$2:E690)</f>
         <v>104</v>
@@ -12339,7 +12339,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H691" s="5" t="s">
         <v>15</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H692" s="5" t="s">
         <v>16</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H693" s="5" t="s">
         <v>19</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="694" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H694" s="5" t="s">
         <v>20</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="695" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H695" s="5" t="s">
         <v>21</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="696" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H696" s="5" t="s">
         <v>23</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="697" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A697" s="4">
         <f>SUBTOTAL(3,$E$2:E697)</f>
         <v>105</v>
@@ -12433,7 +12433,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H698" s="5" t="s">
         <v>15</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H699" s="5" t="s">
         <v>16</v>
       </c>
@@ -12455,7 +12455,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H700" s="5" t="s">
         <v>19</v>
       </c>
@@ -12466,7 +12466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H701" s="5" t="s">
         <v>20</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="702" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H702" s="5" t="s">
         <v>21</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H703" s="5" t="s">
         <v>23</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="704" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H704" s="5" t="s">
         <v>24</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="705" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A705" s="4">
         <f>SUBTOTAL(3,$E$2:E705)</f>
         <v>106</v>
@@ -12538,7 +12538,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H706" s="5" t="s">
         <v>15</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H707" s="5" t="s">
         <v>16</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H708" s="5" t="s">
         <v>19</v>
       </c>
@@ -12571,7 +12571,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H709" s="5" t="s">
         <v>20</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H710" s="5" t="s">
         <v>21</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H711" s="5" t="s">
         <v>23</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H712" s="5" t="s">
         <v>24</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H713" s="5" t="s">
         <v>25</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="714" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:10" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H714" s="5" t="s">
         <v>26</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="715" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A715" s="4">
         <f>SUBTOTAL(3,$E$2:E715)</f>
         <v>107</v>
@@ -12665,7 +12665,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H716" s="5" t="s">
         <v>15</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H717" s="5" t="s">
         <v>16</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H718" s="5" t="s">
         <v>19</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="719" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H719" s="5" t="s">
         <v>20</v>
       </c>
@@ -12709,7 +12709,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="720" spans="1:10" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:10" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E720" s="21"/>
       <c r="H720" s="20" t="s">
         <v>21</v>
@@ -12721,7 +12721,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="721" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A721" s="4">
         <f>SUBTOTAL(3,$E$2:E721)</f>
         <v>108</v>
@@ -12749,7 +12749,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H722" s="5" t="s">
         <v>15</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H723" s="5" t="s">
         <v>16</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H724" s="5" t="s">
         <v>19</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="725" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H725" s="5" t="s">
         <v>20</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="726" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H726" s="5" t="s">
         <v>21</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="727" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H727" s="5" t="s">
         <v>23</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="728" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A728" s="4">
         <f>SUBTOTAL(3,$E$2:E728)</f>
         <v>109</v>
@@ -12843,7 +12843,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H729" s="5" t="s">
         <v>15</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H730" s="5" t="s">
         <v>16</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H731" s="5" t="s">
         <v>19</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="732" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H732" s="5" t="s">
         <v>20</v>
       </c>
@@ -12887,7 +12887,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="733" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H733" s="5" t="s">
         <v>21</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="734" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H734" s="5" t="s">
         <v>23</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="735" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H735" s="5" t="s">
         <v>24</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="736" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A736" s="4">
         <f>SUBTOTAL(3,$E$2:E736)</f>
         <v>110</v>
@@ -12948,7 +12948,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H737" s="5" t="s">
         <v>15</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H738" s="5" t="s">
         <v>16</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H739" s="5" t="s">
         <v>19</v>
       </c>
@@ -12981,7 +12981,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H740" s="5" t="s">
         <v>20</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="741" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H741" s="5" t="s">
         <v>21</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H742" s="5" t="s">
         <v>23</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="743" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H743" s="5" t="s">
         <v>24</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="744" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H744" s="5" t="s">
         <v>25</v>
       </c>
@@ -13036,7 +13036,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="745" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:10" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H745" s="5" t="s">
         <v>26</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="746" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A746" s="4">
         <f>SUBTOTAL(3,$E$2:E746)</f>
         <v>111</v>
@@ -13075,7 +13075,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H747" s="5" t="s">
         <v>15</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H748" s="5" t="s">
         <v>16</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H749" s="5" t="s">
         <v>19</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="750" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H750" s="5" t="s">
         <v>20</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="751" spans="1:10" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:10" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E751" s="21"/>
       <c r="H751" s="20" t="s">
         <v>21</v>
@@ -13131,7 +13131,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="752" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A752" s="4">
         <f>SUBTOTAL(3,$E$2:E752)</f>
         <v>112</v>
@@ -13159,7 +13159,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H753" s="5" t="s">
         <v>15</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H754" s="5" t="s">
         <v>16</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H755" s="5" t="s">
         <v>19</v>
       </c>
@@ -13192,7 +13192,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="756" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H756" s="5" t="s">
         <v>20</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="757" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H757" s="5" t="s">
         <v>21</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="758" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H758" s="5" t="s">
         <v>23</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="759" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A759" s="4">
         <f>SUBTOTAL(3,$E$2:E759)</f>
         <v>113</v>
@@ -13253,7 +13253,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H760" s="5" t="s">
         <v>15</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H761" s="5" t="s">
         <v>16</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H762" s="5" t="s">
         <v>19</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="763" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H763" s="5" t="s">
         <v>20</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="764" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H764" s="5" t="s">
         <v>21</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="765" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H765" s="5" t="s">
         <v>23</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="766" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H766" s="5" t="s">
         <v>24</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="767" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A767" s="4">
         <f>SUBTOTAL(3,$E$2:E767)</f>
         <v>114</v>
@@ -13358,7 +13358,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H768" s="5" t="s">
         <v>15</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H769" s="5" t="s">
         <v>16</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H770" s="5" t="s">
         <v>19</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H771" s="5" t="s">
         <v>20</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="772" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H772" s="5" t="s">
         <v>21</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H773" s="5" t="s">
         <v>23</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="774" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H774" s="5" t="s">
         <v>24</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H775" s="5" t="s">
         <v>25</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="776" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:10" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H776" s="5" t="s">
         <v>26</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="777" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A777" s="4">
         <f>SUBTOTAL(3,$E$2:E777)</f>
         <v>115</v>
@@ -13485,7 +13485,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H778" s="5" t="s">
         <v>15</v>
       </c>
@@ -13496,7 +13496,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H779" s="5" t="s">
         <v>16</v>
       </c>
@@ -13507,7 +13507,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H780" s="5" t="s">
         <v>19</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="781" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H781" s="5" t="s">
         <v>20</v>
       </c>
@@ -13529,7 +13529,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="782" spans="1:10" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:10" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E782" s="21"/>
       <c r="H782" s="20" t="s">
         <v>21</v>
@@ -13541,7 +13541,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="783" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A783" s="4">
         <f>SUBTOTAL(3,$E$2:E783)</f>
         <v>116</v>
@@ -13569,7 +13569,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H784" s="5" t="s">
         <v>15</v>
       </c>
@@ -13580,7 +13580,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H785" s="5" t="s">
         <v>16</v>
       </c>
@@ -13591,7 +13591,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H786" s="5" t="s">
         <v>19</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="787" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H787" s="5" t="s">
         <v>20</v>
       </c>
@@ -13613,7 +13613,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H788" s="5" t="s">
         <v>21</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="789" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H789" s="5" t="s">
         <v>23</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="790" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H790" s="5" t="s">
         <v>24</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="791" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H791" s="5" t="s">
         <v>25</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="792" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H792" s="5" t="s">
         <v>26</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="793" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H793" s="5" t="s">
         <v>27</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="794" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A794" s="4">
         <f>SUBTOTAL(3,$E$2:E794)</f>
         <v>117</v>
@@ -13707,7 +13707,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H795" s="5" t="s">
         <v>15</v>
       </c>
@@ -13718,7 +13718,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H796" s="5" t="s">
         <v>16</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H797" s="5" t="s">
         <v>19</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H798" s="5" t="s">
         <v>20</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="799" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A799" s="4">
         <f>SUBTOTAL(3,$E$2:E799)</f>
         <v>118</v>
@@ -13779,7 +13779,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H800" s="5" t="s">
         <v>15</v>
       </c>
@@ -13790,7 +13790,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H801" s="5" t="s">
         <v>16</v>
       </c>
@@ -13801,7 +13801,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H802" s="5" t="s">
         <v>19</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H803" s="5" t="s">
         <v>20</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H804" s="5" t="s">
         <v>21</v>
       </c>
@@ -13834,7 +13834,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="805" spans="1:10" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:10" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E805" s="21"/>
       <c r="H805" s="20" t="s">
         <v>23</v>
@@ -13846,7 +13846,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="806" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A806" s="4">
         <f>SUBTOTAL(3,$E$2:E806)</f>
         <v>119</v>
@@ -13874,7 +13874,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H807" s="5" t="s">
         <v>15</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H808" s="5" t="s">
         <v>16</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H809" s="5" t="s">
         <v>19</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H810" s="5" t="s">
         <v>20</v>
       </c>
@@ -13918,7 +13918,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H811" s="5" t="s">
         <v>21</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="812" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H812" s="5" t="s">
         <v>23</v>
       </c>
@@ -13940,7 +13940,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="813" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H813" s="5" t="s">
         <v>24</v>
       </c>
@@ -13951,7 +13951,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="814" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A814" s="4">
         <f>SUBTOTAL(3,$E$2:E814)</f>
         <v>120</v>
@@ -13979,7 +13979,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H815" s="5" t="s">
         <v>15</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H816" s="5" t="s">
         <v>16</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H817" s="5" t="s">
         <v>19</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H818" s="5" t="s">
         <v>20</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H819" s="5" t="s">
         <v>21</v>
       </c>
@@ -14034,7 +14034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="820" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H820" s="5" t="s">
         <v>23</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="821" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H821" s="5" t="s">
         <v>24</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="822" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A822" s="4">
         <f>SUBTOTAL(3,$E$2:E822)</f>
         <v>121</v>
@@ -14084,7 +14084,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H823" s="5" t="s">
         <v>15</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H824" s="5" t="s">
         <v>16</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H825" s="5" t="s">
         <v>19</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H826" s="5" t="s">
         <v>20</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="827" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H827" s="5" t="s">
         <v>21</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="828" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H828" s="5" t="s">
         <v>23</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="829" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H829" s="5" t="s">
         <v>24</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="830" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A830" s="4">
         <f>SUBTOTAL(3,$E$2:E830)</f>
         <v>122</v>
@@ -14189,7 +14189,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H831" s="5" t="s">
         <v>15</v>
       </c>
@@ -14200,7 +14200,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="832" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H832" s="5" t="s">
         <v>16</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="833" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H833" s="5" t="s">
         <v>19</v>
       </c>
@@ -14222,7 +14222,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="834" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H834" s="5" t="s">
         <v>20</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="835" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H835" s="5" t="s">
         <v>21</v>
       </c>
@@ -14244,7 +14244,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="836" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H836" s="5" t="s">
         <v>23</v>
       </c>
@@ -14255,7 +14255,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="837" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H837" s="5" t="s">
         <v>24</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="838" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A838" s="4">
         <f>SUBTOTAL(3,$E$2:E838)</f>
         <v>123</v>
@@ -14294,7 +14294,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H839" s="5" t="s">
         <v>15</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H840" s="5" t="s">
         <v>16</v>
       </c>
@@ -14316,7 +14316,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="841" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H841" s="5" t="s">
         <v>19</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H842" s="5" t="s">
         <v>20</v>
       </c>
@@ -14338,7 +14338,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="843" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H843" s="5" t="s">
         <v>21</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="844" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H844" s="5" t="s">
         <v>23</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="845" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H845" s="5" t="s">
         <v>24</v>
       </c>
@@ -14371,7 +14371,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="846" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A846" s="4">
         <f>SUBTOTAL(3,$E$2:E846)</f>
         <v>124</v>
@@ -14399,7 +14399,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H847" s="5" t="s">
         <v>15</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H848" s="5" t="s">
         <v>16</v>
       </c>
@@ -14421,7 +14421,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H849" s="5" t="s">
         <v>19</v>
       </c>
@@ -14432,7 +14432,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="850" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H850" s="5" t="s">
         <v>20</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="851" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H851" s="5" t="s">
         <v>21</v>
       </c>
@@ -14454,7 +14454,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="852" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H852" s="5" t="s">
         <v>23</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="853" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H853" s="5" t="s">
         <v>24</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="854" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A854" s="4">
         <f>SUBTOTAL(3,$E$2:E854)</f>
         <v>125</v>
@@ -14504,7 +14504,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="855" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H855" s="5" t="s">
         <v>15</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="856" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H856" s="5" t="s">
         <v>16</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="857" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H857" s="5" t="s">
         <v>19</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="858" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H858" s="5" t="s">
         <v>20</v>
       </c>
@@ -14548,7 +14548,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="859" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H859" s="5" t="s">
         <v>21</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="860" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H860" s="5" t="s">
         <v>23</v>
       </c>
@@ -14570,7 +14570,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="861" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H861" s="5" t="s">
         <v>24</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="862" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A862" s="4">
         <f>SUBTOTAL(3,$E$2:E862)</f>
         <v>126</v>
@@ -14609,7 +14609,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="863" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H863" s="5" t="s">
         <v>15</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="864" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H864" s="5" t="s">
         <v>16</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="865" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H865" s="5" t="s">
         <v>19</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="866" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H866" s="5" t="s">
         <v>20</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="867" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H867" s="5" t="s">
         <v>21</v>
       </c>
@@ -14664,7 +14664,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="868" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H868" s="5" t="s">
         <v>23</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="869" spans="1:10" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:10" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E869" s="23"/>
       <c r="H869" s="22" t="s">
         <v>24</v>
@@ -14687,7 +14687,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="870" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A870" s="4">
         <f>SUBTOTAL(3,$E$2:E870)</f>
         <v>127</v>
@@ -14715,7 +14715,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="871" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H871" s="5" t="s">
         <v>15</v>
       </c>
@@ -14726,7 +14726,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="872" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H872" s="5" t="s">
         <v>16</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="873" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H873" s="5" t="s">
         <v>19</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="874" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H874" s="5" t="s">
         <v>20</v>
       </c>
@@ -14759,7 +14759,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="875" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H875" s="5" t="s">
         <v>21</v>
       </c>
@@ -14770,7 +14770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="876" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H876" s="5" t="s">
         <v>23</v>
       </c>
@@ -14781,7 +14781,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="877" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H877" s="5" t="s">
         <v>24</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="878" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A878" s="4">
         <f>SUBTOTAL(3,$E$2:E878)</f>
         <v>128</v>
@@ -14820,7 +14820,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="879" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H879" s="5" t="s">
         <v>15</v>
       </c>
@@ -14831,7 +14831,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="880" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H880" s="5" t="s">
         <v>16</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="881" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H881" s="5" t="s">
         <v>19</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="882" spans="1:11" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:11" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A882" s="4">
         <f>SUBTOTAL(3,$E$2:E882)</f>
         <v>129</v>
@@ -14883,7 +14883,7 @@
       </c>
       <c r="K882" s="8"/>
     </row>
-    <row r="883" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H883" s="5" t="s">
         <v>15</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="884" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H884" s="5" t="s">
         <v>16</v>
       </c>
@@ -14905,7 +14905,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="885" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H885" s="5" t="s">
         <v>19</v>
       </c>
@@ -14916,7 +14916,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="886" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H886" s="5" t="s">
         <v>20</v>
       </c>
@@ -14927,7 +14927,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="887" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H887" s="5" t="s">
         <v>21</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="888" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A888" s="4">
         <f>SUBTOTAL(3,$E$2:E888)</f>
         <v>130</v>
@@ -14966,7 +14966,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="889" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H889" s="5" t="s">
         <v>15</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="890" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H890" s="5" t="s">
         <v>16</v>
       </c>
@@ -14988,7 +14988,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="891" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H891" s="5" t="s">
         <v>19</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="892" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H892" s="5" t="s">
         <v>20</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="893" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A893" s="4">
         <f>SUBTOTAL(3,$E$2:E893)</f>
         <v>131</v>
@@ -15038,7 +15038,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="894" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H894" s="5" t="s">
         <v>15</v>
       </c>
@@ -15049,7 +15049,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="895" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H895" s="5" t="s">
         <v>16</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="896" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="H896" s="5" t="s">
         <v>19</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="897" spans="1:10" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:10" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E897" s="21"/>
       <c r="H897" s="20" t="s">
         <v>20</v>
@@ -15083,7 +15083,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="898" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A898" s="4">
         <f>SUBTOTAL(3,$E$2:E898)</f>
         <v>132</v>
@@ -15111,7 +15111,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="899" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H899" s="5" t="s">
         <v>15</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="900" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H900" s="5" t="s">
         <v>16</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="901" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H901" s="5" t="s">
         <v>19</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="902" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="H902" s="5" t="s">
         <v>20</v>
       </c>
@@ -15155,7 +15155,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="903" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A903" s="4">
         <f>SUBTOTAL(3,$E$2:E903)</f>
         <v>133</v>
@@ -15183,7 +15183,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="904" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H904" s="5" t="s">
         <v>15</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="905" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H905" s="5" t="s">
         <v>16</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="906" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H906" s="5" t="s">
         <v>19</v>
       </c>
@@ -15216,7 +15216,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="907" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H907" s="5" t="s">
         <v>20</v>
       </c>
@@ -15227,7 +15227,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="908" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H908" s="5" t="s">
         <v>21</v>
       </c>
@@ -15238,7 +15238,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="909" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H909" s="5" t="s">
         <v>23</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="910" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H910" s="5" t="s">
         <v>24</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="911" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A911" s="4">
         <f>SUBTOTAL(3,$E$2:E911)</f>
         <v>134</v>
@@ -15288,7 +15288,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="912" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H912" s="5" t="s">
         <v>15</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="913" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H913" s="5" t="s">
         <v>16</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="914" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H914" s="5" t="s">
         <v>19</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="915" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H915" s="5" t="s">
         <v>20</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="916" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A916" s="4">
         <f>SUBTOTAL(3,$E$2:E916)</f>
         <v>135</v>
@@ -15360,7 +15360,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="917" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H917" s="5" t="s">
         <v>15</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="918" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H918" s="5" t="s">
         <v>16</v>
       </c>
@@ -15382,7 +15382,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="919" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H919" s="5" t="s">
         <v>19</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="920" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A920" s="4">
         <f>SUBTOTAL(3,$E$2:E920)</f>
         <v>136</v>
@@ -15421,7 +15421,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="921" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H921" s="5" t="s">
         <v>15</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="922" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H922" s="5" t="s">
         <v>16</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="923" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H923" s="5" t="s">
         <v>19</v>
       </c>
@@ -15454,7 +15454,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="924" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A924" s="4">
         <f>SUBTOTAL(3,$E$2:E924)</f>
         <v>137</v>
@@ -15482,7 +15482,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="925" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H925" s="5" t="s">
         <v>15</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="926" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H926" s="5" t="s">
         <v>16</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="927" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H927" s="5" t="s">
         <v>19</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="928" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H928" s="5" t="s">
         <v>20</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="929" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A929" s="4">
         <f>SUBTOTAL(3,$E$2:E929)</f>
         <v>138</v>
@@ -15554,7 +15554,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="930" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H930" s="5" t="s">
         <v>15</v>
       </c>
@@ -15565,7 +15565,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="931" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H931" s="5" t="s">
         <v>16</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="932" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H932" s="5" t="s">
         <v>19</v>
       </c>
@@ -15587,7 +15587,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="933" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A933" s="4">
         <f>SUBTOTAL(3,$E$2:E933)</f>
         <v>139</v>
@@ -15615,7 +15615,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="934" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H934" s="5" t="s">
         <v>15</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="935" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H935" s="5" t="s">
         <v>16</v>
       </c>
@@ -15637,7 +15637,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="936" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H936" s="5" t="s">
         <v>19</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="937" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A937" s="4">
         <f>SUBTOTAL(3,$E$2:E937)</f>
         <v>140</v>
@@ -15676,7 +15676,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="938" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H938" s="5" t="s">
         <v>15</v>
       </c>
@@ -15687,7 +15687,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="939" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H939" s="5" t="s">
         <v>16</v>
       </c>
@@ -15698,7 +15698,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="940" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H940" s="5" t="s">
         <v>19</v>
       </c>
@@ -15709,7 +15709,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="941" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="H941" s="5" t="s">
         <v>20</v>
       </c>
@@ -15720,14 +15720,14 @@
         <v>655</v>
       </c>
     </row>
-    <row r="942" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I942" s="5"/>
       <c r="J942" s="5"/>
     </row>
-    <row r="943" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J943" s="15"/>
     </row>
-    <row r="944" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="14"/>
